--- a/reports/results.xlsx
+++ b/reports/results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anniephan/Desktop/Data_Science_Master/DATA_1030/data1030_project/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576E94E0-7021-6D45-95F5-55F96737DEEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4CDDFF-C8BF-5A44-9BF1-6FC5618BD479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="460" windowWidth="24060" windowHeight="16820" xr2:uid="{2468C560-4168-E144-AE9F-423FB187FEFA}"/>
+    <workbookView xWindow="1440" yWindow="640" windowWidth="24960" windowHeight="16820" xr2:uid="{2468C560-4168-E144-AE9F-423FB187FEFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary" sheetId="4" r:id="rId1"/>
-    <sheet name="Tertiary" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
+    <sheet name="Tertiary" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -167,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,8 +228,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +280,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3BBDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAD79E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -293,22 +326,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -325,22 +352,46 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -349,6 +400,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFAD79E0"/>
+      <color rgb="FFD3BBDC"/>
+      <color rgb="FF9900E3"/>
+      <color rgb="FFC2A5DD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -660,7 +719,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,418 +735,418 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="15">
         <v>0.67100000000000004</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="22">
         <v>0.91900000000000004</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="22">
         <v>1.9E-2</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="22">
         <v>13.058999999999999</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="13">
+      <c r="C3" s="15"/>
+      <c r="D3" s="22">
         <v>0.91600000000000004</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="22">
         <v>0.02</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="22">
         <v>12.256</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13" t="s">
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="13">
+      <c r="C4" s="15"/>
+      <c r="D4" s="22">
         <v>0.90500000000000003</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="22">
         <v>2.4E-2</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="22">
         <v>9.7550000000000008</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="13">
+      <c r="C5" s="15"/>
+      <c r="D5" s="22">
         <v>0.83799999999999997</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="22">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="22">
         <v>4.6420000000000003</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="13">
+      <c r="C6" s="15"/>
+      <c r="D6" s="22">
         <v>0.84899999999999998</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="22">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="22">
         <v>4.8140000000000001</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13" t="s">
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="13">
+      <c r="C7" s="15"/>
+      <c r="D7" s="22">
         <v>0.84099999999999997</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="22">
         <v>0.04</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="22">
         <v>4.2530000000000001</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="13">
+      <c r="C8" s="15"/>
+      <c r="D8" s="22">
         <v>0.67</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="22">
         <v>6.2E-2</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="22">
         <v>-1.4E-2</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="13">
+      <c r="C9" s="15"/>
+      <c r="D9" s="22">
         <v>0.67600000000000005</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="22">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="22">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="13">
+      <c r="C10" s="15"/>
+      <c r="D10" s="22">
         <v>0.68</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="22">
         <v>5.5E-2</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="22">
         <v>0.16600000000000001</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="16">
         <v>0.84599999999999997</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="25">
         <v>0.93100000000000005</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="25">
         <v>0.02</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="25">
         <v>4.2539999999999996</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="50" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="14">
+      <c r="C12" s="16"/>
+      <c r="D12" s="25">
         <v>0.93200000000000005</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="25">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="25">
         <v>4.782</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="14" t="s">
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="14">
+      <c r="C13" s="16"/>
+      <c r="D13" s="25">
         <v>0.92500000000000004</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="25">
         <v>2.3E-2</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="25">
         <v>3.4380000000000002</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="14">
+      <c r="C14" s="16"/>
+      <c r="D14" s="25">
         <v>0.88900000000000001</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="25">
         <v>0.02</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="25">
         <v>2.1539999999999999</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="14">
+      <c r="C15" s="16"/>
+      <c r="D15" s="25">
         <v>0.91500000000000004</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="25">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="25">
         <v>3.14</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14" t="s">
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="14">
+      <c r="C16" s="16"/>
+      <c r="D16" s="25">
         <v>0.875</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="25">
         <v>2.4E-2</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="25">
         <v>1.212</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="14">
+      <c r="C17" s="16"/>
+      <c r="D17" s="25">
         <v>0.84</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="25">
         <v>3.1E-2</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="25">
         <v>-0.191</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="14">
+      <c r="C18" s="16"/>
+      <c r="D18" s="25">
         <v>0.84099999999999997</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="25">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="25">
         <v>-0.154</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14" t="s">
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="14">
+      <c r="C19" s="16"/>
+      <c r="D19" s="25">
         <v>0.84</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="25">
         <v>3.1E-2</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="25">
         <v>-0.191</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1111,11 +1170,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B90372C-B042-9241-9977-09CC409D7918}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <f>1-0.671</f>
+        <v>0.32899999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>1-0.846</f>
+        <v>0.15400000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C02C51-FD22-DD47-B01C-179B831F2213}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:H19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1130,33 +1216,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1174,15 +1260,15 @@
       <c r="F2" s="2">
         <v>10.051</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="50" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1196,13 +1282,13 @@
       <c r="F3" s="2">
         <v>12.361000000000001</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1216,13 +1302,13 @@
       <c r="F4" s="2">
         <v>8.0980000000000008</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1238,15 +1324,15 @@
       <c r="F5" s="2">
         <v>6.3230000000000004</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="50" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1260,13 +1346,13 @@
       <c r="F6" s="2">
         <v>8.32</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1280,13 +1366,13 @@
       <c r="F7" s="2">
         <v>9.9169999999999998</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1302,15 +1388,15 @@
       <c r="F8" s="2">
         <v>-1.135</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="50" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1324,13 +1410,13 @@
       <c r="F9" s="2">
         <v>0.13200000000000001</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1344,204 +1430,204 @@
       <c r="F10" s="2">
         <v>-0.3</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.64400000000000002</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0.89500000000000002</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.02</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>12.547000000000001</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="50" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4">
         <v>0.89100000000000001</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>11.759</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5">
+      <c r="C13" s="3"/>
+      <c r="D13" s="4">
         <v>0.97699999999999998</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>2.7E-2</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>8.6270000000000007</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5">
+      <c r="C14" s="3"/>
+      <c r="D14" s="4">
         <v>0.78500000000000003</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>4.2709999999999999</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="50" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4">
         <v>0.81399999999999995</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>6.7969999999999997</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>5.6929999999999996</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4">
         <v>0.64200000000000002</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>3.1E-2</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>-6.7000000000000004E-2</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="50" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4">
         <v>0.63700000000000001</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>-0.24399999999999999</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5">
+      <c r="C19" s="3"/>
+      <c r="D19" s="4">
         <v>0.64</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>-0.11600000000000001</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/reports/results.xlsx
+++ b/reports/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anniephan/Desktop/Data_Science_Master/DATA_1030/data1030_project/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4CDDFF-C8BF-5A44-9BF1-6FC5618BD479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{334412F4-7F5E-414D-A3A7-B61F8B634B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="640" windowWidth="24960" windowHeight="16820" xr2:uid="{2468C560-4168-E144-AE9F-423FB187FEFA}"/>
   </bookViews>
@@ -719,7 +719,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H5" sqref="H5:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,7 +786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
         <v>8</v>
@@ -850,7 +850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
         <v>8</v>
@@ -914,7 +914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>8</v>
@@ -1044,7 +1044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="25" t="s">
         <v>8</v>

--- a/reports/results.xlsx
+++ b/reports/results.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anniephan/Desktop/Data_Science_Master/DATA_1030/data1030_project/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{334412F4-7F5E-414D-A3A7-B61F8B634B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6BE303-1EDD-A74C-9BA1-7BAE74B65204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="640" windowWidth="24960" windowHeight="16820" xr2:uid="{2468C560-4168-E144-AE9F-423FB187FEFA}"/>
+    <workbookView xWindow="14740" yWindow="1180" windowWidth="22840" windowHeight="16820" xr2:uid="{2468C560-4168-E144-AE9F-423FB187FEFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
     <sheet name="Tertiary" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -328,30 +328,12 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -364,35 +346,53 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6185E9BC-F328-DE45-A9ED-98CE38A872BD}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,426 +735,421 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="18">
         <v>0.67100000000000004</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="11">
         <v>0.91900000000000004</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="11">
         <v>1.9E-2</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="11">
         <v>13.058999999999999</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="54" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="22">
+      <c r="C3" s="18"/>
+      <c r="D3" s="11">
         <v>0.91600000000000004</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="11">
         <v>0.02</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="11">
         <v>12.256</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="22">
+      <c r="C4" s="18"/>
+      <c r="D4" s="11">
         <v>0.90500000000000003</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="11">
         <v>2.4E-2</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="11">
         <v>9.7550000000000008</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="22">
+      <c r="C5" s="18"/>
+      <c r="D5" s="11">
         <v>0.83799999999999997</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="11">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="11">
         <v>4.6420000000000003</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="22">
+      <c r="C6" s="18"/>
+      <c r="D6" s="11">
         <v>0.84899999999999998</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="11">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="11">
         <v>4.8140000000000001</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="22">
+      <c r="C7" s="18"/>
+      <c r="D7" s="11">
         <v>0.84099999999999997</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="11">
         <v>0.04</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="11">
         <v>4.2530000000000001</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="22">
+      <c r="C8" s="18"/>
+      <c r="D8" s="11">
         <v>0.67</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="11">
         <v>6.2E-2</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="11">
         <v>-1.4E-2</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="22">
+      <c r="C9" s="18"/>
+      <c r="D9" s="11">
         <v>0.67600000000000005</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="11">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="11">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="22">
+      <c r="C10" s="18"/>
+      <c r="D10" s="11">
         <v>0.68</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="11">
         <v>5.5E-2</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="11">
         <v>0.16600000000000001</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="20">
         <v>0.84599999999999997</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="13">
         <v>0.93100000000000005</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="13">
         <v>0.02</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="13">
         <v>4.2539999999999996</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="54" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="25">
+      <c r="C12" s="20"/>
+      <c r="D12" s="13">
         <v>0.93200000000000005</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="13">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="13">
         <v>4.782</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="25">
+      <c r="C13" s="20"/>
+      <c r="D13" s="13">
         <v>0.92500000000000004</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="13">
         <v>2.3E-2</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="13">
         <v>3.4380000000000002</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="25">
+      <c r="C14" s="20"/>
+      <c r="D14" s="13">
         <v>0.88900000000000001</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="13">
         <v>0.02</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="13">
         <v>2.1539999999999999</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="25">
+      <c r="C15" s="20"/>
+      <c r="D15" s="13">
         <v>0.91500000000000004</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="13">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="13">
         <v>3.14</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="25">
+      <c r="C16" s="20"/>
+      <c r="D16" s="13">
         <v>0.875</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="13">
         <v>2.4E-2</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="13">
         <v>1.212</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="25">
+      <c r="C17" s="20"/>
+      <c r="D17" s="13">
         <v>0.84</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="13">
         <v>3.1E-2</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="13">
         <v>-0.191</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="25">
+      <c r="C18" s="20"/>
+      <c r="D18" s="13">
         <v>0.84099999999999997</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="13">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="13">
         <v>-0.154</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="25">
+      <c r="C19" s="20"/>
+      <c r="D19" s="13">
         <v>0.84</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="13">
         <v>3.1E-2</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="13">
         <v>-0.191</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="19"/>
+      <c r="H19" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
     <mergeCell ref="H17:H19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="C2:C10"/>
@@ -1164,6 +1159,11 @@
     <mergeCell ref="C11:C19"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1216,421 +1216,427 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="21">
         <v>0.48599999999999999</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.86799999999999999</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>10.051</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="50" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2">
+      <c r="C3" s="21"/>
+      <c r="D3" s="1">
         <v>0.89400000000000002</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>12.361000000000001</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2">
+      <c r="C4" s="21"/>
+      <c r="D4" s="1">
         <v>0.81</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.04</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>8.0980000000000008</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2">
+      <c r="C5" s="21"/>
+      <c r="D5" s="1">
         <v>0.73899999999999999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.04</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>6.3230000000000004</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="50" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2">
+      <c r="C6" s="21"/>
+      <c r="D6" s="1">
         <v>0.74399999999999999</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>8.32</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2">
+      <c r="C7" s="21"/>
+      <c r="D7" s="1">
         <v>0.73399999999999999</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>9.9169999999999998</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2">
+      <c r="C8" s="21"/>
+      <c r="D8" s="1">
         <v>0.435</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>-1.135</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="50" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2">
+      <c r="C9" s="21"/>
+      <c r="D9" s="1">
         <v>0.49399999999999999</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.06</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2">
+      <c r="C10" s="21"/>
+      <c r="D10" s="1">
         <v>0.46300000000000002</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>-0.3</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="22">
         <v>0.64400000000000002</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>0.89500000000000002</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>0.02</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>12.547000000000001</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="50" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4">
+      <c r="C12" s="22"/>
+      <c r="D12" s="2">
         <v>0.89100000000000001</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>11.759</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4">
+      <c r="C13" s="22"/>
+      <c r="D13" s="2">
         <v>0.97699999999999998</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>8.6270000000000007</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4">
+      <c r="C14" s="22"/>
+      <c r="D14" s="2">
         <v>0.78500000000000003</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>4.2709999999999999</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="50" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4">
+      <c r="C15" s="22"/>
+      <c r="D15" s="2">
         <v>0.81399999999999995</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>6.7969999999999997</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="25" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4">
+      <c r="C16" s="22"/>
+      <c r="D16" s="2">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>5.6929999999999996</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4">
+      <c r="C17" s="22"/>
+      <c r="D17" s="2">
         <v>0.64200000000000002</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>-6.7000000000000004E-2</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="50" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4">
+      <c r="C18" s="22"/>
+      <c r="D18" s="2">
         <v>0.63700000000000001</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>-0.24399999999999999</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4">
+      <c r="C19" s="22"/>
+      <c r="D19" s="2">
         <v>0.64</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>-0.11600000000000001</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="C2:C10"/>
     <mergeCell ref="C11:C19"/>
     <mergeCell ref="H2:H4"/>
@@ -1639,12 +1645,6 @@
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="H17:H19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reports/results.xlsx
+++ b/reports/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anniephan/Desktop/Data_Science_Master/DATA_1030/data1030_project/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6BE303-1EDD-A74C-9BA1-7BAE74B65204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A07F99-2F53-604C-86EC-3F288F55CE4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14740" yWindow="1180" windowWidth="22840" windowHeight="16820" xr2:uid="{2468C560-4168-E144-AE9F-423FB187FEFA}"/>
+    <workbookView xWindow="11800" yWindow="460" windowWidth="16080" windowHeight="16820" xr2:uid="{2468C560-4168-E144-AE9F-423FB187FEFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
   <si>
     <t>Std Accuracy</t>
   </si>
@@ -92,9 +92,6 @@
     <t>C = 1, gamma = 10</t>
   </si>
   <si>
-    <t>Logistic Regression</t>
-  </si>
-  <si>
     <t>Random Forest Classification</t>
   </si>
   <si>
@@ -162,13 +159,31 @@
   </si>
   <si>
     <t>Support Vector Classifier</t>
+  </si>
+  <si>
+    <t>Logistic Regression/ Random Forest Classification</t>
+  </si>
+  <si>
+    <t>If the difference in the means is small compared to the standard deviations, the models perform similarly. If the difference in the means is a significant fraction of the standard deviation (maybe 0.5 or more), only then you can say with confidence that one method is better than the other.</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>Random Forest Classification (but All 3 Models Perform Quite Similarly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Parameters </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,6 +256,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -326,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -394,6 +415,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,36 +738,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6185E9BC-F328-DE45-A9ED-98CE38A872BD}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>0</v>
@@ -754,15 +776,15 @@
         <v>2</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>7</v>
@@ -783,10 +805,16 @@
         <v>10</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="54" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="11" t="s">
         <v>8</v>
@@ -802,11 +830,23 @@
         <v>12.256</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <f>D2-D3</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="J3">
+        <f>E2-E3</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="K3">
+        <f>I3/J3</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="11" t="s">
         <v>9</v>
@@ -826,7 +866,7 @@
       </c>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -847,10 +887,10 @@
         <v>12</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="54" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
@@ -866,11 +906,11 @@
         <v>4.8140000000000001</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="54" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="11" t="s">
         <v>9</v>
@@ -890,7 +930,7 @@
       </c>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
@@ -911,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="11" t="s">
         <v>8</v>
@@ -930,11 +970,11 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="11" t="s">
         <v>9</v>
@@ -954,9 +994,9 @@
       </c>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>7</v>
@@ -977,10 +1017,10 @@
         <v>15</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="54" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="13" t="s">
         <v>8</v>
@@ -996,11 +1036,11 @@
         <v>4.782</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="54" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="13" t="s">
         <v>9</v>
@@ -1020,9 +1060,9 @@
       </c>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>7</v>
@@ -1041,10 +1081,10 @@
         <v>16</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="54" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="13" t="s">
         <v>8</v>
@@ -1060,11 +1100,11 @@
         <v>3.14</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="13" t="s">
         <v>9</v>
@@ -1080,13 +1120,13 @@
         <v>1.212</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>7</v>
@@ -1105,7 +1145,7 @@
         <v>13</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.3">
@@ -1124,7 +1164,7 @@
         <v>-0.154</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" s="16"/>
     </row>
@@ -1147,6 +1187,11 @@
         <v>17</v>
       </c>
       <c r="H19" s="16"/>
+    </row>
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1217,16 +1262,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -1243,7 +1288,7 @@
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1264,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="50" x14ac:dyDescent="0.3">
@@ -1283,7 +1328,7 @@
         <v>12.361000000000001</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="23"/>
     </row>
@@ -1328,7 +1373,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="50" x14ac:dyDescent="0.3">
@@ -1347,7 +1392,7 @@
         <v>8.32</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="23"/>
     </row>
@@ -1389,10 +1434,10 @@
         <v>-1.135</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="50" x14ac:dyDescent="0.3">
@@ -1411,7 +1456,7 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="23"/>
     </row>
@@ -1431,13 +1476,13 @@
         <v>-0.3</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="25" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -1458,7 +1503,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="50" x14ac:dyDescent="0.3">
@@ -1477,7 +1522,7 @@
         <v>11.759</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="24"/>
     </row>
@@ -1503,7 +1548,7 @@
     </row>
     <row r="14" spans="1:8" ht="25" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -1522,7 +1567,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="50" x14ac:dyDescent="0.3">
@@ -1541,7 +1586,7 @@
         <v>6.7969999999999997</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="24"/>
     </row>
@@ -1567,7 +1612,7 @@
     </row>
     <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -1583,10 +1628,10 @@
         <v>-6.7000000000000004E-2</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="50" x14ac:dyDescent="0.3">
@@ -1605,7 +1650,7 @@
         <v>-0.24399999999999999</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="24"/>
     </row>

--- a/reports/results.xlsx
+++ b/reports/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anniephan/Desktop/Data_Science_Master/DATA_1030/data1030_project/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A07F99-2F53-604C-86EC-3F288F55CE4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646CD95C-B8EC-4A4C-AA75-57E6A65F2EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11800" yWindow="460" windowWidth="16080" windowHeight="16820" xr2:uid="{2468C560-4168-E144-AE9F-423FB187FEFA}"/>
+    <workbookView xWindow="11800" yWindow="460" windowWidth="16080" windowHeight="16820" activeTab="1" xr2:uid="{2468C560-4168-E144-AE9F-423FB187FEFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
   <si>
     <t>Std Accuracy</t>
   </si>
@@ -177,13 +177,109 @@
   </si>
   <si>
     <t xml:space="preserve">Best Parameters </t>
+  </si>
+  <si>
+    <t>Validation Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math (all score) </t>
+  </si>
+  <si>
+    <t>OneHotEncoder</t>
+  </si>
+  <si>
+    <t>MinMax Encoder</t>
+  </si>
+  <si>
+    <t>Test Set (0.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Set </t>
+  </si>
+  <si>
+    <t>252-253 points</t>
+  </si>
+  <si>
+    <t>79 points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total points </t>
+  </si>
+  <si>
+    <t>395 points</t>
+  </si>
+  <si>
+    <t>Columns Before Encoding (Exclusing G3, Including Pass_Fail)</t>
+  </si>
+  <si>
+    <t>Columns After Encoding (Exclusing G3, Including Pass_Fail)</t>
+  </si>
+  <si>
+    <t>63-64 points</t>
+  </si>
+  <si>
+    <t>17 features</t>
+  </si>
+  <si>
+    <t>18 features</t>
+  </si>
+  <si>
+    <t>19 features</t>
+  </si>
+  <si>
+    <t>20 features</t>
+  </si>
+  <si>
+    <t>21 features</t>
+  </si>
+  <si>
+    <t>22 features</t>
+  </si>
+  <si>
+    <t>4 features</t>
+  </si>
+  <si>
+    <t>3 features</t>
+  </si>
+  <si>
+    <t>2 features</t>
+  </si>
+  <si>
+    <t>649 pointts</t>
+  </si>
+  <si>
+    <t>649 point</t>
+  </si>
+  <si>
+    <t>649 points</t>
+  </si>
+  <si>
+    <t>130 points</t>
+  </si>
+  <si>
+    <t>33 features</t>
+  </si>
+  <si>
+    <t>32 features</t>
+  </si>
+  <si>
+    <t>31 features</t>
+  </si>
+  <si>
+    <t>47 features</t>
+  </si>
+  <si>
+    <t>46 features</t>
+  </si>
+  <si>
+    <t>45 features</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,8 +359,14 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +421,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB33CFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -347,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -416,6 +524,19 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,9 +545,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFAD79E0"/>
+      <color rgb="FFB33CFF"/>
       <color rgb="FFD3BBDC"/>
       <color rgb="FF9900E3"/>
+      <color rgb="FFAD79E0"/>
       <color rgb="FFC2A5DD"/>
     </mruColors>
   </colors>
@@ -740,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6185E9BC-F328-DE45-A9ED-98CE38A872BD}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:H19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1216,27 +1338,274 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B90372C-B042-9241-9977-09CC409D7918}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <f>1-0.671</f>
-        <v>0.32899999999999996</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <f>1-0.846</f>
-        <v>0.15400000000000003</v>
-      </c>
+    <row r="1" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f>0.8/5</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="19"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="19"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="19"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="19"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="19"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/reports/results.xlsx
+++ b/reports/results.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anniephan/Desktop/Data_Science_Master/DATA_1030/data1030_project/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646CD95C-B8EC-4A4C-AA75-57E6A65F2EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C966D784-A6D0-7749-B1A1-524D261F15C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11800" yWindow="460" windowWidth="16080" windowHeight="16820" activeTab="1" xr2:uid="{2468C560-4168-E144-AE9F-423FB187FEFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
+    <sheet name="Preprocess" sheetId="6" r:id="rId2"/>
     <sheet name="Tertiary" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1341,7 +1341,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
